--- a/biology/Histoire de la zoologie et de la botanique/Nicolaus_Poda_von_Neuhaus/Nicolaus_Poda_von_Neuhaus.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nicolaus_Poda_von_Neuhaus/Nicolaus_Poda_von_Neuhaus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolaus (ou Nikolaus) Poda von Neuhaus, né le 4 octobre 1723 à Vienne et mort le 29 avril 1798 dans cette même ville, est un jésuite et naturaliste autrichien qui s'est particulièrement distingué dans le domaine de l'entomologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études d’abord à l’Akademische Gymnasium puis à l’université à partir de 1739. Il rejoint la Compagnie de Jésus le 22 novembre 1740. Il étudie à Leoben en 1742, à Klagenfurt de 1743 à 1746, à Judenburg en 1747, les mathématiques à nouveau à Vienne de 1748 à 1749 et la théologie de 1750 à 1753.
 Après avoir obtenu le troisième ordre à Judenburg en 1754, il commence à enseigner à Klagenfurt en 1755, puis à Linz en 1757, puis à l’université jésuite de Graz de 1758 à 1765. À Graz, il est aussi le conservateur de l’observatoire et commence une collection d’histoire naturelle. De 1766 à 1771, il est professeur à l’université de Schemnitz en Hongrie.
